--- a/FW/LDP2_FW/K_calc.xlsx
+++ b/FW/LDP2_FW/K_calc.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="电压输出拟合" sheetId="1" r:id="rId1"/>
+    <sheet name="电压设置拟合" sheetId="1" r:id="rId1"/>
     <sheet name="电压显示拟合" sheetId="2" r:id="rId2"/>
     <sheet name="电流设置拟合" sheetId="3" r:id="rId3"/>
     <sheet name="电流显示拟合" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>设置值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>编号4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号3 同2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +297,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>电压输出拟合!$B$3:$B$22</c:f>
+              <c:f>电压设置拟合!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -675,7 +679,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>电压输出拟合!$A$27:$A$46</c:f>
+              <c:f>电压设置拟合!$A$27:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -744,7 +748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>电压输出拟合!$B$27:$B$46</c:f>
+              <c:f>电压设置拟合!$B$27:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -770,10 +774,10 @@
                   <c:v>5.6619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4710000000000001</c:v>
+                  <c:v>6.4720000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2789999999999999</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.0879999999999992</c:v>
@@ -782,31 +786,31 @@
                   <c:v>8.8849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6929999999999996</c:v>
+                  <c:v>9.6940000000000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.497</c:v>
+                  <c:v>10.497999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.304</c:v>
+                  <c:v>11.305</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.112</c:v>
+                  <c:v>12.113</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.913</c:v>
+                  <c:v>12.914</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.721</c:v>
+                  <c:v>13.722</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.526999999999999</c:v>
+                  <c:v>14.529</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>15.335000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.140999999999998</c:v>
+                  <c:v>16.141999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8439,10 +8443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C25"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8787,7 +8791,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="3">
-        <v>6.4710000000000001</v>
+        <v>6.4720000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -8795,7 +8799,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>7.2789999999999999</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -8819,7 +8823,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="3">
-        <v>9.6929999999999996</v>
+        <v>9.6940000000000008</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -8827,7 +8831,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="3">
-        <v>10.497</v>
+        <v>10.497999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -8835,7 +8839,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="3">
-        <v>11.304</v>
+        <v>11.305</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -8843,7 +8847,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="3">
-        <v>12.112</v>
+        <v>12.113</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -8851,7 +8855,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="3">
-        <v>12.913</v>
+        <v>12.914</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -8859,7 +8863,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="3">
-        <v>13.721</v>
+        <v>13.722</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -8867,7 +8871,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="3">
-        <v>14.526999999999999</v>
+        <v>14.529</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -8883,13 +8887,21 @@
         <v>20</v>
       </c>
       <c r="B46" s="3">
-        <v>16.140999999999998</v>
-      </c>
+        <v>16.141999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A50:C50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8900,10 +8912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9402,10 +9414,18 @@
         <v>2477</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9417,7 +9437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -9831,10 +9851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10014,10 +10034,18 @@
         <v>3694</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
